--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cx3cr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H2">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I2">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J2">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>38.6237256341888</v>
+        <v>0.05108466666666667</v>
       </c>
       <c r="N2">
-        <v>38.6237256341888</v>
+        <v>0.153254</v>
       </c>
       <c r="O2">
-        <v>0.3264360337246652</v>
+        <v>0.0004048871544489625</v>
       </c>
       <c r="P2">
-        <v>0.3264360337246652</v>
+        <v>0.0004048871544489624</v>
       </c>
       <c r="Q2">
-        <v>174.9406600089821</v>
+        <v>0.2789655997973333</v>
       </c>
       <c r="R2">
-        <v>174.9406600089821</v>
+        <v>2.510690398176</v>
       </c>
       <c r="S2">
-        <v>0.1339123466420023</v>
+        <v>0.0001810904778593453</v>
       </c>
       <c r="T2">
-        <v>0.1339123466420023</v>
+        <v>0.0001810904778593453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H3">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I3">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J3">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>76.0152685828733</v>
+        <v>0.303814</v>
       </c>
       <c r="N3">
-        <v>76.0152685828733</v>
+        <v>0.911442</v>
       </c>
       <c r="O3">
-        <v>0.6424580324986423</v>
+        <v>0.002407970805494611</v>
       </c>
       <c r="P3">
-        <v>0.6424580324986423</v>
+        <v>0.002407970805494611</v>
       </c>
       <c r="Q3">
-        <v>344.3003241737167</v>
+        <v>1.659082074272</v>
       </c>
       <c r="R3">
-        <v>344.3003241737167</v>
+        <v>14.931738668448</v>
       </c>
       <c r="S3">
-        <v>0.2635525918179185</v>
+        <v>0.001076992883194418</v>
       </c>
       <c r="T3">
-        <v>0.2635525918179185</v>
+        <v>0.001076992883194418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.52935746452509</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H4">
-        <v>4.52935746452509</v>
+        <v>16.382544</v>
       </c>
       <c r="I4">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J4">
-        <v>0.4102253820267637</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.68043637241216</v>
+        <v>45.38881466666666</v>
       </c>
       <c r="N4">
-        <v>3.68043637241216</v>
+        <v>136.166444</v>
       </c>
       <c r="O4">
-        <v>0.03110593377669257</v>
+        <v>0.359742936840761</v>
       </c>
       <c r="P4">
-        <v>0.03110593377669257</v>
+        <v>0.359742936840761</v>
       </c>
       <c r="Q4">
-        <v>16.67001195609466</v>
+        <v>247.8614177948373</v>
       </c>
       <c r="R4">
-        <v>16.67001195609466</v>
+        <v>2230.752760153536</v>
       </c>
       <c r="S4">
-        <v>0.01276044356684292</v>
+        <v>0.1608992027116276</v>
       </c>
       <c r="T4">
-        <v>0.01276044356684292</v>
+        <v>0.1608992027116276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.10936474302346</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H5">
-        <v>5.10936474302346</v>
+        <v>16.382544</v>
       </c>
       <c r="I5">
-        <v>0.4627568303091848</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J5">
-        <v>0.4627568303091848</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.6237256341888</v>
+        <v>76.20846066666667</v>
       </c>
       <c r="N5">
-        <v>38.6237256341888</v>
+        <v>228.625382</v>
       </c>
       <c r="O5">
-        <v>0.3264360337246652</v>
+        <v>0.6040134701396834</v>
       </c>
       <c r="P5">
-        <v>0.3264360337246652</v>
+        <v>0.6040134701396833</v>
       </c>
       <c r="Q5">
-        <v>197.3427019995357</v>
+        <v>416.1628200146453</v>
       </c>
       <c r="R5">
-        <v>197.3427019995357</v>
+        <v>3745.465380131808</v>
       </c>
       <c r="S5">
-        <v>0.1510605042651282</v>
+        <v>0.2701520330768226</v>
       </c>
       <c r="T5">
-        <v>0.1510605042651282</v>
+        <v>0.2701520330768226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.10936474302346</v>
+        <v>5.460847999999999</v>
       </c>
       <c r="H6">
-        <v>5.10936474302346</v>
+        <v>16.382544</v>
       </c>
       <c r="I6">
-        <v>0.4627568303091848</v>
+        <v>0.4472616033121704</v>
       </c>
       <c r="J6">
-        <v>0.4627568303091848</v>
+        <v>0.4472616033121705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>76.0152685828733</v>
+        <v>4.217960333333333</v>
       </c>
       <c r="N6">
-        <v>76.0152685828733</v>
+        <v>12.653881</v>
       </c>
       <c r="O6">
-        <v>0.6424580324986423</v>
+        <v>0.03343073505961209</v>
       </c>
       <c r="P6">
-        <v>0.6424580324986423</v>
+        <v>0.03343073505961209</v>
       </c>
       <c r="Q6">
-        <v>388.3897332287917</v>
+        <v>23.03364025036266</v>
       </c>
       <c r="R6">
-        <v>388.3897332287917</v>
+        <v>207.302762253264</v>
       </c>
       <c r="S6">
-        <v>0.2973018427257469</v>
+        <v>0.01495228416266649</v>
       </c>
       <c r="T6">
-        <v>0.2973018427257469</v>
+        <v>0.01495228416266649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,247 +838,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.10936474302346</v>
+        <v>5.169142</v>
       </c>
       <c r="H7">
-        <v>5.10936474302346</v>
+        <v>15.507426</v>
       </c>
       <c r="I7">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J7">
-        <v>0.4627568303091848</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.68043637241216</v>
+        <v>0.05108466666666667</v>
       </c>
       <c r="N7">
-        <v>3.68043637241216</v>
+        <v>0.153254</v>
       </c>
       <c r="O7">
-        <v>0.03110593377669257</v>
+        <v>0.0004048871544489625</v>
       </c>
       <c r="P7">
-        <v>0.03110593377669257</v>
+        <v>0.0004048871544489624</v>
       </c>
       <c r="Q7">
-        <v>18.80469184014385</v>
+        <v>0.2640638960226667</v>
       </c>
       <c r="R7">
-        <v>18.80469184014385</v>
+        <v>2.376575064204</v>
       </c>
       <c r="S7">
-        <v>0.01439448331830966</v>
+        <v>0.0001714170390574526</v>
       </c>
       <c r="T7">
-        <v>0.01439448331830966</v>
+        <v>0.0001714170390574526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.40242166840398</v>
+        <v>5.169142</v>
       </c>
       <c r="H8">
-        <v>1.40242166840398</v>
+        <v>15.507426</v>
       </c>
       <c r="I8">
-        <v>0.1270177876640514</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J8">
-        <v>0.1270177876640514</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>38.6237256341888</v>
+        <v>0.303814</v>
       </c>
       <c r="N8">
-        <v>38.6237256341888</v>
+        <v>0.911442</v>
       </c>
       <c r="O8">
-        <v>0.3264360337246652</v>
+        <v>0.002407970805494611</v>
       </c>
       <c r="P8">
-        <v>0.3264360337246652</v>
+        <v>0.002407970805494611</v>
       </c>
       <c r="Q8">
-        <v>54.16674974387663</v>
+        <v>1.570457707588</v>
       </c>
       <c r="R8">
-        <v>54.16674974387663</v>
+        <v>14.134119368292</v>
       </c>
       <c r="S8">
-        <v>0.04146318281753465</v>
+        <v>0.001019462388665892</v>
       </c>
       <c r="T8">
-        <v>0.04146318281753465</v>
+        <v>0.001019462388665893</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.40242166840398</v>
+        <v>5.169142</v>
       </c>
       <c r="H9">
-        <v>1.40242166840398</v>
+        <v>15.507426</v>
       </c>
       <c r="I9">
-        <v>0.1270177876640514</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="J9">
-        <v>0.1270177876640514</v>
+        <v>0.4233699122678894</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>76.0152685828733</v>
+        <v>45.38881466666666</v>
       </c>
       <c r="N9">
-        <v>76.0152685828733</v>
+        <v>136.166444</v>
       </c>
       <c r="O9">
-        <v>0.6424580324986423</v>
+        <v>0.359742936840761</v>
       </c>
       <c r="P9">
-        <v>0.6424580324986423</v>
+        <v>0.359742936840761</v>
       </c>
       <c r="Q9">
-        <v>106.6054597901698</v>
+        <v>234.6212282236826</v>
       </c>
       <c r="R9">
-        <v>106.6054597901698</v>
+        <v>2111.591054013144</v>
       </c>
       <c r="S9">
-        <v>0.08160359795497679</v>
+        <v>0.1523043356092659</v>
       </c>
       <c r="T9">
-        <v>0.08160359795497679</v>
+        <v>0.1523043356092659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.169142</v>
+      </c>
+      <c r="H10">
+        <v>15.507426</v>
+      </c>
+      <c r="I10">
+        <v>0.4233699122678894</v>
+      </c>
+      <c r="J10">
+        <v>0.4233699122678894</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>76.20846066666667</v>
+      </c>
+      <c r="N10">
+        <v>228.625382</v>
+      </c>
+      <c r="O10">
+        <v>0.6040134701396834</v>
+      </c>
+      <c r="P10">
+        <v>0.6040134701396833</v>
+      </c>
+      <c r="Q10">
+        <v>393.9323547874147</v>
+      </c>
+      <c r="R10">
+        <v>3545.391193086732</v>
+      </c>
+      <c r="S10">
+        <v>0.2557211298616612</v>
+      </c>
+      <c r="T10">
+        <v>0.2557211298616612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.169142</v>
+      </c>
+      <c r="H11">
+        <v>15.507426</v>
+      </c>
+      <c r="I11">
+        <v>0.4233699122678894</v>
+      </c>
+      <c r="J11">
+        <v>0.4233699122678894</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.217960333333333</v>
+      </c>
+      <c r="N11">
+        <v>12.653881</v>
+      </c>
+      <c r="O11">
+        <v>0.03343073505961209</v>
+      </c>
+      <c r="P11">
+        <v>0.03343073505961209</v>
+      </c>
+      <c r="Q11">
+        <v>21.80323591336733</v>
+      </c>
+      <c r="R11">
+        <v>196.229123220306</v>
+      </c>
+      <c r="S11">
+        <v>0.01415356736923902</v>
+      </c>
+      <c r="T11">
+        <v>0.01415356736923903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07054933333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.211648</v>
+      </c>
+      <c r="I12">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="J12">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05108466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.153254</v>
+      </c>
+      <c r="O12">
+        <v>0.0004048871544489625</v>
+      </c>
+      <c r="P12">
+        <v>0.0004048871544489624</v>
+      </c>
+      <c r="Q12">
+        <v>0.003603989176888889</v>
+      </c>
+      <c r="R12">
+        <v>0.032435902592</v>
+      </c>
+      <c r="S12">
+        <v>2.339529041275563E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.339529041275562E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07054933333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.211648</v>
+      </c>
+      <c r="I13">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="J13">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.303814</v>
+      </c>
+      <c r="N13">
+        <v>0.911442</v>
+      </c>
+      <c r="O13">
+        <v>0.002407970805494611</v>
+      </c>
+      <c r="P13">
+        <v>0.002407970805494611</v>
+      </c>
+      <c r="Q13">
+        <v>0.02143387515733333</v>
+      </c>
+      <c r="R13">
+        <v>0.192904876416</v>
+      </c>
+      <c r="S13">
+        <v>1.391379688907488E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.391379688907487E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07054933333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.211648</v>
+      </c>
+      <c r="I14">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="J14">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>45.38881466666666</v>
+      </c>
+      <c r="N14">
+        <v>136.166444</v>
+      </c>
+      <c r="O14">
+        <v>0.359742936840761</v>
+      </c>
+      <c r="P14">
+        <v>0.359742936840761</v>
+      </c>
+      <c r="Q14">
+        <v>3.202150615523555</v>
+      </c>
+      <c r="R14">
+        <v>28.819355539712</v>
+      </c>
+      <c r="S14">
+        <v>0.002078675598582892</v>
+      </c>
+      <c r="T14">
+        <v>0.002078675598582892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07054933333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.211648</v>
+      </c>
+      <c r="I15">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="J15">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>76.20846066666667</v>
+      </c>
+      <c r="N15">
+        <v>228.625382</v>
+      </c>
+      <c r="O15">
+        <v>0.6040134701396834</v>
+      </c>
+      <c r="P15">
+        <v>0.6040134701396833</v>
+      </c>
+      <c r="Q15">
+        <v>5.376456094392889</v>
+      </c>
+      <c r="R15">
+        <v>48.388104849536</v>
+      </c>
+      <c r="S15">
+        <v>0.003490125678688448</v>
+      </c>
+      <c r="T15">
+        <v>0.003490125678688447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07054933333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.211648</v>
+      </c>
+      <c r="I16">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="J16">
+        <v>0.005778224909257943</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.217960333333333</v>
+      </c>
+      <c r="N16">
+        <v>12.653881</v>
+      </c>
+      <c r="O16">
+        <v>0.03343073505961209</v>
+      </c>
+      <c r="P16">
+        <v>0.03343073505961209</v>
+      </c>
+      <c r="Q16">
+        <v>0.2975742895431111</v>
+      </c>
+      <c r="R16">
+        <v>2.678168605888</v>
+      </c>
+      <c r="S16">
+        <v>0.0001931703060562534</v>
+      </c>
+      <c r="T16">
+        <v>0.0001931703060562534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.090335</v>
+      </c>
+      <c r="H17">
+        <v>0.271005</v>
+      </c>
+      <c r="I17">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J17">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05108466666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.153254</v>
+      </c>
+      <c r="O17">
+        <v>0.0004048871544489625</v>
+      </c>
+      <c r="P17">
+        <v>0.0004048871544489624</v>
+      </c>
+      <c r="Q17">
+        <v>0.004614733363333333</v>
+      </c>
+      <c r="R17">
+        <v>0.04153260027</v>
+      </c>
+      <c r="S17">
+        <v>2.995653480452846E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.995653480452845E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.090335</v>
+      </c>
+      <c r="H18">
+        <v>0.271005</v>
+      </c>
+      <c r="I18">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J18">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.303814</v>
+      </c>
+      <c r="N18">
+        <v>0.911442</v>
+      </c>
+      <c r="O18">
+        <v>0.002407970805494611</v>
+      </c>
+      <c r="P18">
+        <v>0.002407970805494611</v>
+      </c>
+      <c r="Q18">
+        <v>0.02744503769</v>
+      </c>
+      <c r="R18">
+        <v>0.24700533921</v>
+      </c>
+      <c r="S18">
+        <v>1.781594215831823E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.781594215831823E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.090335</v>
+      </c>
+      <c r="H19">
+        <v>0.271005</v>
+      </c>
+      <c r="I19">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J19">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>45.38881466666666</v>
+      </c>
+      <c r="N19">
+        <v>136.166444</v>
+      </c>
+      <c r="O19">
+        <v>0.359742936840761</v>
+      </c>
+      <c r="P19">
+        <v>0.359742936840761</v>
+      </c>
+      <c r="Q19">
+        <v>4.100198572913333</v>
+      </c>
+      <c r="R19">
+        <v>36.90178715622</v>
+      </c>
+      <c r="S19">
+        <v>0.002661643297333103</v>
+      </c>
+      <c r="T19">
+        <v>0.002661643297333103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.090335</v>
+      </c>
+      <c r="H20">
+        <v>0.271005</v>
+      </c>
+      <c r="I20">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J20">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>76.20846066666667</v>
+      </c>
+      <c r="N20">
+        <v>228.625382</v>
+      </c>
+      <c r="O20">
+        <v>0.6040134701396834</v>
+      </c>
+      <c r="P20">
+        <v>0.6040134701396833</v>
+      </c>
+      <c r="Q20">
+        <v>6.884291294323333</v>
+      </c>
+      <c r="R20">
+        <v>61.95862164891</v>
+      </c>
+      <c r="S20">
+        <v>0.00446893667576808</v>
+      </c>
+      <c r="T20">
+        <v>0.004468936675768079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.090335</v>
+      </c>
+      <c r="H21">
+        <v>0.271005</v>
+      </c>
+      <c r="I21">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="J21">
+        <v>0.007398736777732125</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.217960333333333</v>
+      </c>
+      <c r="N21">
+        <v>12.653881</v>
+      </c>
+      <c r="O21">
+        <v>0.03343073505961209</v>
+      </c>
+      <c r="P21">
+        <v>0.03343073505961209</v>
+      </c>
+      <c r="Q21">
+        <v>0.3810294467116667</v>
+      </c>
+      <c r="R21">
+        <v>3.429265020405</v>
+      </c>
+      <c r="S21">
+        <v>0.0002473452089921707</v>
+      </c>
+      <c r="T21">
+        <v>0.0002473452089921707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H22">
+        <v>4.255927</v>
+      </c>
+      <c r="I22">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J22">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05108466666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.153254</v>
+      </c>
+      <c r="O22">
+        <v>0.0004048871544489625</v>
+      </c>
+      <c r="P22">
+        <v>0.0004048871544489624</v>
+      </c>
+      <c r="Q22">
+        <v>0.07247087071755556</v>
+      </c>
+      <c r="R22">
+        <v>0.6522378364579999</v>
+      </c>
+      <c r="S22">
+        <v>4.704445501043611E-05</v>
+      </c>
+      <c r="T22">
+        <v>4.70444550104361E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H23">
+        <v>4.255927</v>
+      </c>
+      <c r="I23">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J23">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.303814</v>
+      </c>
+      <c r="N23">
+        <v>0.911442</v>
+      </c>
+      <c r="O23">
+        <v>0.002407970805494611</v>
+      </c>
+      <c r="P23">
+        <v>0.002407970805494611</v>
+      </c>
+      <c r="Q23">
+        <v>0.4310034018593333</v>
+      </c>
+      <c r="R23">
+        <v>3.879030616734</v>
+      </c>
+      <c r="S23">
+        <v>0.0002797857945869073</v>
+      </c>
+      <c r="T23">
+        <v>0.0002797857945869073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H24">
+        <v>4.255927</v>
+      </c>
+      <c r="I24">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J24">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>45.38881466666666</v>
+      </c>
+      <c r="N24">
+        <v>136.166444</v>
+      </c>
+      <c r="O24">
+        <v>0.359742936840761</v>
+      </c>
+      <c r="P24">
+        <v>0.359742936840761</v>
+      </c>
+      <c r="Q24">
+        <v>64.39049394595422</v>
+      </c>
+      <c r="R24">
+        <v>579.5144455135879</v>
+      </c>
+      <c r="S24">
+        <v>0.04179907962395153</v>
+      </c>
+      <c r="T24">
+        <v>0.04179907962395152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.255927</v>
+      </c>
+      <c r="I25">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J25">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>76.20846066666667</v>
+      </c>
+      <c r="N25">
+        <v>228.625382</v>
+      </c>
+      <c r="O25">
+        <v>0.6040134701396834</v>
+      </c>
+      <c r="P25">
+        <v>0.6040134701396833</v>
+      </c>
+      <c r="Q25">
+        <v>108.1125484599016</v>
+      </c>
+      <c r="R25">
+        <v>973.012936139114</v>
+      </c>
+      <c r="S25">
+        <v>0.07018124484674312</v>
+      </c>
+      <c r="T25">
+        <v>0.07018124484674311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.40242166840398</v>
-      </c>
-      <c r="H10">
-        <v>1.40242166840398</v>
-      </c>
-      <c r="I10">
-        <v>0.1270177876640514</v>
-      </c>
-      <c r="J10">
-        <v>0.1270177876640514</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.68043637241216</v>
-      </c>
-      <c r="N10">
-        <v>3.68043637241216</v>
-      </c>
-      <c r="O10">
-        <v>0.03110593377669257</v>
-      </c>
-      <c r="P10">
-        <v>0.03110593377669257</v>
-      </c>
-      <c r="Q10">
-        <v>5.161523717852954</v>
-      </c>
-      <c r="R10">
-        <v>5.161523717852954</v>
-      </c>
-      <c r="S10">
-        <v>0.003951006891539982</v>
-      </c>
-      <c r="T10">
-        <v>0.003951006891539982</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.418642333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.255927</v>
+      </c>
+      <c r="I26">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="J26">
+        <v>0.1161915227329501</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.217960333333333</v>
+      </c>
+      <c r="N26">
+        <v>12.653881</v>
+      </c>
+      <c r="O26">
+        <v>0.03343073505961209</v>
+      </c>
+      <c r="P26">
+        <v>0.03343073505961209</v>
+      </c>
+      <c r="Q26">
+        <v>5.983777089187444</v>
+      </c>
+      <c r="R26">
+        <v>53.853993802687</v>
+      </c>
+      <c r="S26">
+        <v>0.003884368012658151</v>
+      </c>
+      <c r="T26">
+        <v>0.003884368012658151</v>
       </c>
     </row>
   </sheetData>
